--- a/table_products.xlsx
+++ b/table_products.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пк\Desktop\Programming\Питание\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пк\Desktop\Programming\food\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD85296F-3292-4769-8C31-98864010FDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8688EC84-85BE-4FBD-948A-801BA80DD9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Продукты</t>
   </si>
@@ -45,18 +45,6 @@
     <t>Хлеб ржаной</t>
   </si>
   <si>
-    <t>Хлеб белый (батоны из муки первого сорта)</t>
-  </si>
-  <si>
-    <t>Сдоба обыкновенная</t>
-  </si>
-  <si>
-    <t>Сушки простые</t>
-  </si>
-  <si>
-    <t>Пирожное песочное с фруктовой начинкой</t>
-  </si>
-  <si>
     <t>Крупа гречневая</t>
   </si>
   <si>
@@ -69,87 +57,39 @@
     <t>Крупа рисовая</t>
   </si>
   <si>
-    <t>Макаронные изделия</t>
-  </si>
-  <si>
     <t>Сахар-рафинад</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Масло сливочное</t>
   </si>
   <si>
     <t>Масло подсолнечное</t>
   </si>
   <si>
-    <t>Молоко коровье</t>
-  </si>
-  <si>
-    <t>Кефир жирный</t>
-  </si>
-  <si>
-    <t>Сыр (голландский)</t>
-  </si>
-  <si>
-    <t>Сметана 30% жирности</t>
-  </si>
-  <si>
-    <t>Творог нежирный</t>
-  </si>
-  <si>
-    <t>Мороженое (пломбир)</t>
-  </si>
-  <si>
-    <t>Яйцо куриное</t>
-  </si>
-  <si>
     <t>Говядина</t>
   </si>
   <si>
-    <t>Куры</t>
-  </si>
-  <si>
     <t>Рыба</t>
   </si>
   <si>
-    <t>Икра зернистая (осетровая)</t>
-  </si>
-  <si>
-    <t>Капуста белокачанная</t>
-  </si>
-  <si>
     <t>Картофель</t>
   </si>
   <si>
     <t>Морковь</t>
   </si>
   <si>
-    <t>Горох зеленый</t>
-  </si>
-  <si>
     <t>Огурцы</t>
   </si>
   <si>
-    <t>Свекла</t>
-  </si>
-  <si>
     <t>Яблоки</t>
   </si>
   <si>
     <t>Груши</t>
   </si>
   <si>
-    <t>Сливы</t>
-  </si>
-  <si>
     <t>Апельсины</t>
   </si>
   <si>
-    <t>Земляника садовая (клубника)</t>
-  </si>
-  <si>
     <t>Виноград</t>
   </si>
   <si>
@@ -157,6 +97,42 @@
   </si>
   <si>
     <t>Орехи фундук</t>
+  </si>
+  <si>
+    <t>Хлеб белый</t>
+  </si>
+  <si>
+    <t>Кура</t>
+  </si>
+  <si>
+    <t>Свинина</t>
+  </si>
+  <si>
+    <t>Гейнер</t>
+  </si>
+  <si>
+    <t>Макароны</t>
+  </si>
+  <si>
+    <t>Молоко</t>
+  </si>
+  <si>
+    <t>Кефир</t>
+  </si>
+  <si>
+    <t>Сыр</t>
+  </si>
+  <si>
+    <t>Творог</t>
+  </si>
+  <si>
+    <t>Яйцо</t>
+  </si>
+  <si>
+    <t>Капуста</t>
+  </si>
+  <si>
+    <t>Фасоль</t>
   </si>
 </sst>
 </file>
@@ -474,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +501,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>236</v>
@@ -542,611 +518,495 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="C4">
-        <v>7.6</v>
+        <v>12.6</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="E4">
-        <v>56.4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>11.9</v>
       </c>
       <c r="D5">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="E5">
-        <v>73</v>
+        <v>65.400000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>424</v>
+        <v>334</v>
       </c>
       <c r="C6">
-        <v>5.0999999999999996</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>18.5</v>
+        <v>2.9</v>
       </c>
       <c r="E6">
-        <v>62.6</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C7">
-        <v>12.6</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="E7">
-        <v>68</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="C8">
-        <v>11.9</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>5.8</v>
+        <v>1.5</v>
       </c>
       <c r="E8">
-        <v>65.400000000000006</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>69.3</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>323</v>
+        <v>748</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>0.6</v>
       </c>
       <c r="D10">
-        <v>0.6</v>
+        <v>82.5</v>
       </c>
       <c r="E10">
-        <v>77.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>10.4</v>
+        <v>899</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>75.2</v>
+        <v>99.9</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <v>375</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>2.8</v>
+      </c>
+      <c r="D12">
+        <v>3.2</v>
       </c>
       <c r="E12">
-        <v>99.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>748</v>
+        <v>59</v>
       </c>
       <c r="C13">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="D13">
-        <v>82.5</v>
+        <v>3.2</v>
       </c>
       <c r="E13">
-        <v>0.9</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B14">
-        <v>899</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
+        <v>400</v>
+      </c>
+      <c r="C14">
+        <v>25.3</v>
       </c>
       <c r="D14">
-        <v>99.9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B15">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C15">
-        <v>2.8</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="E15">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B16">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="C16">
-        <v>2.8</v>
+        <v>12.7</v>
       </c>
       <c r="D16">
-        <v>3.2</v>
+        <v>11.5</v>
       </c>
       <c r="E16">
-        <v>4.0999999999999996</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>400</v>
+        <v>142</v>
       </c>
       <c r="C17">
-        <v>25.3</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D17">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
+        <v>7.1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>293</v>
+        <v>187</v>
       </c>
       <c r="C18">
-        <v>2.6</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>12.4</v>
       </c>
       <c r="E18">
-        <v>2.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="D19">
-        <v>0.6</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E19">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="C20">
-        <v>3.2</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>1.2</v>
       </c>
       <c r="E20">
-        <v>20.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B21">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <v>12.7</v>
+        <v>1.8</v>
       </c>
       <c r="D21">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="C22">
-        <v>18.899999999999999</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>12.4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
+        <v>0.1</v>
+      </c>
+      <c r="E22">
+        <v>19.7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>241</v>
+        <v>33</v>
       </c>
       <c r="C23">
-        <v>18.2</v>
+        <v>1.3</v>
       </c>
       <c r="D23">
-        <v>18.399999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="E23">
-        <v>0.7</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>0.8</v>
       </c>
       <c r="D24">
-        <v>1.2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="C25">
-        <v>28.9</v>
+        <v>0.4</v>
       </c>
       <c r="D25">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>11.3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C26">
-        <v>1.8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
+        <v>0.4</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>5.4</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="D27">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>19.7</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C28">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="D28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="D29">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="E29">
-        <v>13.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>704</v>
       </c>
       <c r="C30">
-        <v>0.8</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D30">
+        <v>66.900000000000006</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B31">
-        <v>48</v>
+        <v>400</v>
       </c>
       <c r="C31">
-        <v>1.7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
       </c>
       <c r="E31">
-        <v>10.8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="C32">
-        <v>0.4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>1.5</v>
       </c>
       <c r="E32">
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33">
-        <v>42</v>
-      </c>
-      <c r="C33">
-        <v>0.4</v>
-      </c>
-      <c r="D33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34">
-        <v>43</v>
-      </c>
-      <c r="C34">
-        <v>0.8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35">
-        <v>38</v>
-      </c>
-      <c r="C35">
-        <v>0.9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36">
-        <v>41</v>
-      </c>
-      <c r="C36">
-        <v>1.8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37">
-        <v>69</v>
-      </c>
-      <c r="C37">
-        <v>0.4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>25</v>
-      </c>
-      <c r="C38">
-        <v>3.2</v>
-      </c>
-      <c r="D38">
-        <v>0.7</v>
-      </c>
-      <c r="E38">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>704</v>
-      </c>
-      <c r="C39">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="D39">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="E39">
-        <v>9.9</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
